--- a/FitnessData/static1/pso/analysis.xlsx
+++ b/FitnessData/static1/pso/analysis.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62.93</v>
+        <v>63.47</v>
       </c>
       <c r="B2" t="n">
-        <v>60.83</v>
+        <v>59.11</v>
       </c>
       <c r="C2" t="n">
-        <v>62.36</v>
+        <v>60.92</v>
       </c>
       <c r="D2" t="n">
-        <v>63.46</v>
+        <v>63.96</v>
       </c>
       <c r="E2" t="n">
-        <v>63.69</v>
+        <v>59.87</v>
       </c>
       <c r="F2" t="n">
-        <v>62.33</v>
+        <v>63.96</v>
       </c>
       <c r="G2" t="n">
-        <v>60.75</v>
+        <v>60.41</v>
       </c>
       <c r="H2" t="n">
-        <v>63.09</v>
+        <v>62.71</v>
       </c>
       <c r="I2" t="n">
-        <v>60.51</v>
+        <v>59.99</v>
       </c>
       <c r="J2" t="n">
-        <v>65.95999999999999</v>
+        <v>60.32</v>
       </c>
       <c r="K2" t="n">
-        <v>63.15</v>
+        <v>63.55</v>
       </c>
       <c r="L2" t="n">
-        <v>59.87</v>
+        <v>64.27</v>
       </c>
       <c r="M2" t="n">
-        <v>63.55</v>
+        <v>60.41</v>
       </c>
       <c r="N2" t="n">
-        <v>62.36</v>
+        <v>60.41</v>
       </c>
       <c r="O2" t="n">
-        <v>63.09</v>
+        <v>60.19</v>
       </c>
       <c r="P2" t="n">
-        <v>61.98</v>
+        <v>63.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.48</v>
+        <v>63.96</v>
       </c>
       <c r="R2" t="n">
-        <v>60.5</v>
+        <v>60.67</v>
       </c>
       <c r="S2" t="n">
         <v>63.96</v>
       </c>
       <c r="T2" t="n">
-        <v>61.14</v>
+        <v>61.05</v>
       </c>
       <c r="U2" t="n">
-        <v>59.87</v>
+        <v>59.11</v>
       </c>
       <c r="V2" t="n">
-        <v>62.4995</v>
+        <v>61.84699999999999</v>
       </c>
       <c r="W2" t="n">
-        <v>1.550617788597754</v>
+        <v>1.815587769117324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>100.98</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100.98</v>
+      </c>
+      <c r="D3" t="n">
         <v>88.92</v>
       </c>
-      <c r="B3" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="C3" t="n">
-        <v>105.98</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>100.98</v>
+      </c>
+      <c r="F3" t="n">
+        <v>88.92</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100.98</v>
+      </c>
+      <c r="H3" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100.98</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100.98</v>
+      </c>
+      <c r="K3" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>88.92</v>
+      </c>
+      <c r="M3" t="n">
+        <v>100.98</v>
+      </c>
+      <c r="N3" t="n">
+        <v>100.98</v>
+      </c>
+      <c r="O3" t="n">
         <v>104.34</v>
       </c>
-      <c r="E3" t="n">
-        <v>88.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>96.22</v>
-      </c>
-      <c r="G3" t="n">
-        <v>107.7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>108.42</v>
-      </c>
-      <c r="I3" t="n">
-        <v>115.1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" t="n">
-        <v>110.82</v>
-      </c>
-      <c r="L3" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="M3" t="n">
-        <v>95.09999999999999</v>
-      </c>
-      <c r="N3" t="n">
-        <v>105.98</v>
-      </c>
-      <c r="O3" t="n">
-        <v>96.22</v>
-      </c>
       <c r="P3" t="n">
-        <v>106.12</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="Q3" t="n">
         <v>88.92</v>
       </c>
       <c r="R3" t="n">
-        <v>106.12</v>
+        <v>104.34</v>
       </c>
       <c r="S3" t="n">
         <v>88.92</v>
       </c>
       <c r="T3" t="n">
-        <v>108.42</v>
+        <v>105.98</v>
       </c>
       <c r="U3" t="n">
         <v>88.92</v>
       </c>
       <c r="V3" t="n">
-        <v>101.209</v>
+        <v>97.125</v>
       </c>
       <c r="W3" t="n">
-        <v>8.038623802093175</v>
+        <v>6.068357533789086</v>
       </c>
     </row>
   </sheetData>
